--- a/cp/maj-mapping-global/ig/ValueSet-act-type-ror-valueset.xlsx
+++ b/cp/maj-mapping-global/ig/ValueSet-act-type-ror-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-26T14:37:44+00:00</t>
+    <t>2025-07-02T12:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp/maj-mapping-global/ig/ValueSet-act-type-ror-valueset.xlsx
+++ b/cp/maj-mapping-global/ig/ValueSet-act-type-ror-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T12:53:37+00:00</t>
+    <t>2025-07-10T13:45:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
